--- a/encodingTimeGroupBy.xlsx
+++ b/encodingTimeGroupBy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Documents\Diplomatiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9395D237-5B85-4AE0-A5C2-2924594B80E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14A5B58-524E-4086-8AFE-D638348503CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5F7CCA04-640C-435E-95A0-4AD84AFB26C8}"/>
   </bookViews>
@@ -24778,7 +24778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDE88B0-0C46-4EE0-B40A-BAAE88E8C0FC}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>

--- a/encodingTimeGroupBy.xlsx
+++ b/encodingTimeGroupBy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Documents\Diplomatiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14A5B58-524E-4086-8AFE-D638348503CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088CB632-9D89-4C83-B149-90842689CEB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5F7CCA04-640C-435E-95A0-4AD84AFB26C8}"/>
   </bookViews>
